--- a/biology/Botanique/Boletus_nobilis/Boletus_nobilis.xlsx
+++ b/biology/Botanique/Boletus_nobilis/Boletus_nobilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus nobilis, le bolet noble, est une espèce de champignons basidiomycètes, comestible, du genre Boletus de l'Est de l'Amérique du Nord de les Appalaches à l'Ohio[1]. Morphologiquement proche de Boletus edulis, il s'en distingue par un pied allongé, une cuticule beige et des pores blancs même vieux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus nobilis, le bolet noble, est une espèce de champignons basidiomycètes, comestible, du genre Boletus de l'Est de l'Amérique du Nord de les Appalaches à l'Ohio. Morphologiquement proche de Boletus edulis, il s'en distingue par un pied allongé, une cuticule beige et des pores blancs même vieux.
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus nobilis (Peck 1910[2])
-Classification phylogénétique
-Pendant de nombreuses années, Boletus nobilis a été considéré comme une sous-espèce ou une forme de Boletus edulis. Les analyses phylogénétiques ont montré que Boletus nobilis est une espèce en tant que membre d'un clade ou groupe est étroitement lié avec Boletus separans[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus nobilis (Peck 1910)
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, Boletus nobilis a été considéré comme une sous-espèce ou une forme de Boletus edulis. Les analyses phylogénétiques ont montré que Boletus nobilis est une espèce en tant que membre d'un clade ou groupe est étroitement lié avec Boletus separans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_nobilis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_nobilis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophore : comme avec d'autres bolets, la taille du sporophore est variable, mais il n'atteint pas l'importance de Boletus edulis.
 Hymenium : pores blanches, même vieux.
@@ -554,37 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boletus_nobilis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boletus_nobilis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus nobilis se trouve sous les chênes sur la côte Est de l'Amérique du Nord: Appalaches, Pennsylvanie, Ohio
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -606,12 +626,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus nobilis apparait généralement en mai à juin.
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus nobilis se trouve sous les chênes sur la côte Est de l'Amérique du Nord: Appalaches, Pennsylvanie, Ohio
 </t>
         </is>
       </c>
@@ -637,12 +659,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus nobilis est comestible et excellent. Il peut être conservé et cuit ou surgelé.
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus nobilis apparait généralement en mai à juin.
 </t>
         </is>
       </c>
@@ -668,10 +692,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus nobilis est comestible et excellent. Il peut être conservé et cuit ou surgelé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_nobilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_nobilis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus variipes et Boletus gertrudiae.
 </t>
